--- a/data/trans_dic/CONS_HIP-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_HIP-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -568,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>15,39%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,38%</t>
+          <t>22,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,05%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>22,66%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>30,51%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>23,67%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,52; 12,55</t>
+          <t>7,33; 13,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,72; 25,34</t>
+          <t>7,81; 14,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,76; 14,83</t>
+          <t>6,46; 11,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,73; 9,34</t>
+          <t>9,17; 24,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,6; 24,59</t>
+          <t>19,78; 26,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,13; 38,72</t>
+          <t>19,74; 27,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,36; 25,18</t>
+          <t>16,49; 22,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,69; 20,59</t>
+          <t>22,91; 39,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,07; 18,47</t>
+          <t>15,36; 20,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,23; 30,1</t>
+          <t>15,73; 21,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,76; 20,83</t>
+          <t>12,77; 17,09</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,92; 15,11</t>
+          <t>18,51; 30,3</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>11,05%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,84; 5,74</t>
+          <t>4,97; 7,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,37; 10,74</t>
+          <t>1,91; 4,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 4,89</t>
+          <t>3,39; 5,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,59; 6,29</t>
+          <t>6,45; 10,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,32; 11,39</t>
+          <t>8,94; 11,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,6; 16,71</t>
+          <t>4,19; 8,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,16; 8,56</t>
+          <t>7,45; 10,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,82; 10,93</t>
+          <t>11,48; 16,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,33; 8,13</t>
+          <t>7,29; 8,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,53; 12,8</t>
+          <t>3,57; 6,55</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,99; 6,42</t>
+          <t>5,74; 7,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,93; 8,36</t>
+          <t>9,65; 12,88</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>4,53%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>5,23%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,99%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,8%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>6,03%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>9,4%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>5,73%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>4,16%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>5,26%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,15%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>7,56%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>4,89%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>3,58%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,58</t>
+          <t>1,82; 3,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,69; 7,45</t>
+          <t>2,93; 6,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 5,81</t>
+          <t>2,21; 5,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,04</t>
+          <t>3,8; 7,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,12; 7,59</t>
+          <t>2,95; 5,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,34; 12,21</t>
+          <t>4,23; 8,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,46</t>
+          <t>3,44; 6,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,31</t>
+          <t>7,2; 12,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,77; 6,13</t>
+          <t>2,65; 4,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,11; 9,28</t>
+          <t>4,12; 6,77</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 6,02</t>
+          <t>3,09; 5,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,92; 4,42</t>
+          <t>6,16; 9,25</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>11,73%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 6,48</t>
+          <t>5,07; 6,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,74; 10,07</t>
+          <t>3,11; 5,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 6,01</t>
+          <t>3,98; 5,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,61; 5,9</t>
+          <t>6,81; 10,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,24; 12,63</t>
+          <t>9,71; 11,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,93; 16,97</t>
+          <t>6,71; 11,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,22; 11,44</t>
+          <t>8,71; 10,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,4; 10,96</t>
+          <t>12,76; 17,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,8; 9,3</t>
+          <t>7,73; 8,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,51; 13,17</t>
+          <t>5,43; 8,11</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,37; 8,61</t>
+          <t>6,61; 8,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,27; 8,32</t>
+          <t>10,39; 13,19</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de hipnóticos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8793</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>24738</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>18734</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>15165</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>29264</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>89270</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>53639</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>36415</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>38057</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>114008</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>72374</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>51580</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6454; 11748</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17782; 33292</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>13937; 24507</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9036; 24316</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>25273; 33492</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>77910; 107798</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>45133; 62045</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>27343; 46842</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>33149; 43290</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>97929; 133924</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>62525; 83649</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>40326; 66033</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>27193</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>49385</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>37072</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>29242</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>43803</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>94475</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>77121</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>49298</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>70996</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>143860</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>114193</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>78540</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>22524; 31920</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>26974; 68854</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>29203; 47708</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>22985; 37371</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>38615; 49825</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>58093; 121499</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>64714; 90116</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>40677; 58534</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>64533; 77925</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>99880; 182972</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>99345; 130534</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>68577; 91550</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4089</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>20809</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12668</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11718</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7682</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>26719</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>20322</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>26573</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11770</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>47528</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>32990</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>38291</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2767; 5948</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13466; 31480</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8369; 20316</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8510; 16415</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5729; 9951</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18752; 35504</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14337; 27603</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>20352; 34808</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9155; 14791</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>37198; 61136</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>24617; 42183</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>31207; 46860</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>735</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>40075</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>94931</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>68475</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>56125</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>80749</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>210465</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>151082</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>112287</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>120824</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>305396</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>219557</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>168412</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>35140; 46000</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>65206; 120246</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>57945; 82775</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>46256; 68217</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>73226; 88229</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>149323; 247265</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>135795; 168143</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>96477; 129039</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>111914; 130044</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>234749; 350375</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>199219; 242191</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>149177; 189377</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_HIP-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_HIP-Estudios-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos</t>
+          <t>Consumo de hipnóticos (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1262,7 +1262,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos</t>
+          <t>Consumo de hipnóticos (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_HIP-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_HIP-Estudios-trans_dic.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,33; 13,34</t>
+          <t>7,84; 13,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,81; 14,61</t>
+          <t>7,25; 14,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,17; 24,67</t>
+          <t>9,34; 25,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,78; 26,22</t>
+          <t>20,05; 26,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,74; 27,31</t>
+          <t>19,39; 27,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -760,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,91; 39,25</t>
+          <t>23,07; 40,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,36; 20,06</t>
+          <t>15,25; 19,87</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,73; 21,51</t>
+          <t>15,88; 21,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,51; 30,3</t>
+          <t>17,95; 29,85</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,97; 7,04</t>
+          <t>4,69; 6,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,89</t>
+          <t>2,0; 4,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,45; 10,48</t>
+          <t>6,39; 10,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,94; 11,54</t>
+          <t>8,8; 11,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,19; 8,77</t>
+          <t>4,18; 8,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,48; 16,52</t>
+          <t>11,53; 16,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,29; 8,8</t>
+          <t>6,99; 8,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 6,55</t>
+          <t>3,71; 6,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,65; 12,88</t>
+          <t>9,59; 12,98</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,92</t>
+          <t>2,07; 4,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,93; 6,85</t>
+          <t>2,94; 6,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 7,33</t>
+          <t>3,54; 7,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 5,12</t>
+          <t>3,03; 5,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,01</t>
+          <t>4,44; 8,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,2; 12,31</t>
+          <t>7,22; 12,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 4,28</t>
+          <t>2,88; 4,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,12; 6,77</t>
+          <t>4,06; 6,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,16; 9,25</t>
+          <t>6,16; 9,28</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,07; 6,64</t>
+          <t>4,79; 6,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,11; 5,73</t>
+          <t>3,06; 5,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,81; 10,04</t>
+          <t>6,79; 10,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,71; 11,7</t>
+          <t>9,43; 11,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,71; 11,12</t>
+          <t>6,84; 10,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1180,17 +1180,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,76; 17,06</t>
+          <t>12,85; 16,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,73; 8,99</t>
+          <t>7,4; 8,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,43; 8,11</t>
+          <t>5,72; 8,15</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,39; 13,19</t>
+          <t>10,44; 13,05</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8793</t>
+          <t>8518</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29264</t>
+          <t>27768</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>38057</t>
+          <t>36286</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -1520,12 +1520,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6454; 11748</t>
+          <t>6470; 11005</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17782; 33292</t>
+          <t>16519; 32857</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1535,17 +1535,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9036; 24316</t>
+          <t>9209; 25174</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>25273; 33492</t>
+          <t>24346; 32389</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>77910; 107798</t>
+          <t>76555; 106620</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -1555,17 +1555,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27343; 46842</t>
+          <t>27527; 47855</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>33149; 43290</t>
+          <t>31113; 40525</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>97929; 133924</t>
+          <t>98868; 131284</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>40326; 66033</t>
+          <t>39122; 65033</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>27193</t>
+          <t>25677</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>43803</t>
+          <t>44138</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>70996</t>
+          <t>69815</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1728,12 +1728,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22524; 31920</t>
+          <t>21647; 29910</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26974; 68854</t>
+          <t>28222; 68819</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22985; 37371</t>
+          <t>22785; 37350</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>38615; 49825</t>
+          <t>39120; 49444</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>58093; 121499</t>
+          <t>57970; 121520</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1763,17 +1763,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>40677; 58534</t>
+          <t>40843; 58207</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>64533; 77925</t>
+          <t>63329; 77102</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>99880; 182972</t>
+          <t>103676; 182137</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>68577; 91550</t>
+          <t>68186; 92282</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4089</t>
+          <t>5316</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7682</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11770</t>
+          <t>14664</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1936,12 +1936,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2767; 5948</t>
+          <t>3636; 7713</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13466; 31480</t>
+          <t>13511; 30948</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1951,17 +1951,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8510; 16415</t>
+          <t>7935; 16431</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5729; 9951</t>
+          <t>6900; 12522</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18752; 35504</t>
+          <t>19680; 36193</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1971,17 +1971,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>20352; 34808</t>
+          <t>20401; 34212</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9155; 14791</t>
+          <t>11611; 18709</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>37198; 61136</t>
+          <t>36676; 61060</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>31207; 46860</t>
+          <t>31217; 47033</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>40075</t>
+          <t>39511</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>80749</t>
+          <t>81254</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>120824</t>
+          <t>120765</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>35140; 46000</t>
+          <t>34446; 44799</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>65206; 120246</t>
+          <t>64186; 119724</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2159,17 +2159,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>46256; 68217</t>
+          <t>46101; 68221</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>73226; 88229</t>
+          <t>74823; 89186</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>149323; 247265</t>
+          <t>152112; 244388</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2179,17 +2179,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>96477; 129039</t>
+          <t>97159; 128402</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>111914; 130044</t>
+          <t>111932; 130806</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>234749; 350375</t>
+          <t>247100; 352090</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>149177; 189377</t>
+          <t>149906; 187275</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/CONS_HIP-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_HIP-Estudios-trans_dic.xlsx
@@ -569,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -657,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>10,33%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15,39%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8,68%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>10,32%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10,86%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,68%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>15,39%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>21,55%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>30,51%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19,6%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>22,86%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>22,61%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>19,6%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>30,51%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>17,39%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>23,67%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>14,79%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>17,79%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>18,31%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>14,79%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>23,67%</t>
         </is>
       </c>
     </row>
@@ -725,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>7,0; 13,8</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9,34; 25,54</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6,46; 11,36</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>7,84; 13,33</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>7,25; 14,42</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>6,46; 11,36</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>9,34; 25,54</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>18,51; 25,01</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>23,07; 40,1</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>16,49; 22,67</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>20,05; 26,67</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>19,39; 27,01</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>16,49; 22,67</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>23,07; 40,1</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>15,32; 19,71</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>17,95; 29,85</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>12,77; 17,09</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>15,25; 19,87</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>15,88; 21,09</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>12,77; 17,09</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>17,95; 29,85</t>
         </is>
       </c>
     </row>
@@ -797,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4,3%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8,2%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4,3%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>5,56%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,5%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,3%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,2%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>8,22%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>13,92%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8,87%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>9,93%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,82%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>8,87%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>13,92%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>6,25%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11,05%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6,6%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>7,71%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>5,15%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>6,6%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>11,05%</t>
         </is>
       </c>
     </row>
@@ -865,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>3,26; 5,65</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6,39; 10,48</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3,39; 5,53</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>4,69; 6,48</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,0; 4,88</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>3,39; 5,53</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>6,39; 10,48</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>6,99; 9,66</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>11,53; 16,43</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7,45; 10,37</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>8,8; 11,13</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>4,18; 8,77</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>7,45; 10,37</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>11,53; 16,43</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>5,37; 7,18</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>9,59; 12,98</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>5,74; 7,54</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>6,99; 8,51</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>3,71; 6,52</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>5,74; 7,54</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>9,59; 12,98</t>
         </is>
       </c>
     </row>
@@ -937,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>4,35%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5,23%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>3,03%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,53%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,35%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,23%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>6,07%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>9,4%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>4,1%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>6,03%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,87%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>9,4%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>5,2%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,56%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,15%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>3,63%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>5,26%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>4,15%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>7,56%</t>
         </is>
       </c>
     </row>
@@ -1005,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>2,85; 6,54</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3,54; 7,33</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2,21; 5,37</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>2,07; 4,39</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,94; 6,73</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,21; 5,37</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>3,54; 7,33</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>4,41; 8,15</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7,22; 12,1</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3,44; 6,62</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>3,03; 5,49</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>4,44; 8,17</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>3,44; 6,62</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>7,22; 12,1</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>4,05; 6,62</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>6,16; 9,28</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3,09; 5,3</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>2,88; 4,64</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>4,06; 6,76</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>3,09; 5,3</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>6,16; 9,28</t>
         </is>
       </c>
     </row>
@@ -1077,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>5,06%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8,26%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4,7%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>5,49%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,53%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,7%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>8,26%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>10,36%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>14,85%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9,69%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>10,24%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>9,46%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>9,69%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>14,85%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>7,8%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11,73%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7,28%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>7,98%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>7,07%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>7,28%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>11,73%</t>
         </is>
       </c>
     </row>
@@ -1145,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>4,23; 6,15</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6,79; 10,05</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3,98; 5,68</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>4,79; 6,22</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,06; 5,71</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,98; 5,68</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>6,79; 10,05</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>9,26; 11,35</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12,85; 16,98</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8,71; 10,78</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>9,43; 11,24</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>6,84; 10,99</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>8,71; 10,78</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>12,85; 16,98</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>7,09; 8,6</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10,44; 13,05</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>6,61; 8,03</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>7,4; 8,64</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>5,72; 8,15</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>6,61; 8,03</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>10,44; 13,05</t>
         </is>
       </c>
     </row>
@@ -1296,62 +1296,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -1384,62 +1384,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>54</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>178</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>232</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>105</t>
         </is>
       </c>
     </row>
@@ -1452,62 +1452,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>26320</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>15165</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>18734</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>8518</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>24738</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>18734</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>15165</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>93156</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>36415</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>53639</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>27768</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>89270</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>53639</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>36415</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>119477</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>51580</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>72374</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>36286</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>114008</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>72374</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>51580</t>
         </is>
       </c>
     </row>
@@ -1520,62 +1520,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>17852; 35181</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9209; 25174</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>13937; 24507</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>6470; 11005</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>16519; 32857</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>13937; 24507</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>9209; 25174</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>80021; 108103</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>27527; 47855</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>45133; 62045</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>24346; 32389</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>76555; 106620</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>45133; 62045</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>27527; 47855</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>105275; 135411</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>39122; 65033</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>62525; 83649</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>31113; 40525</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>98868; 131284</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>62525; 83649</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>39122; 65033</t>
         </is>
       </c>
     </row>
@@ -1592,62 +1592,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>155</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>269</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>118</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>424</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>212</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>235</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>182</t>
         </is>
       </c>
     </row>
@@ -1660,62 +1660,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>55422</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>29242</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>37072</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>25677</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>49385</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>37072</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>29242</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>104459</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>49298</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>77121</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>44138</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>94475</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>77121</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>49298</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>159882</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>78540</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>114193</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>69815</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>143860</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>114193</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>78540</t>
         </is>
       </c>
     </row>
@@ -1728,62 +1728,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>42021; 72751</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>22785; 37350</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>29203; 47708</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>21647; 29910</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>28222; 68819</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>29203; 47708</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>22785; 37350</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>88772; 122719</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>40843; 58207</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>64714; 90116</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>39120; 49444</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>57970; 121520</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>64714; 90116</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>40843; 58207</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>137313; 183799</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>68186; 92282</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>99345; 130534</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>63329; 77102</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>103676; 182137</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>99345; 130534</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>68186; 92282</t>
         </is>
       </c>
     </row>
@@ -1800,62 +1800,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>79</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>114</t>
         </is>
       </c>
     </row>
@@ -1868,62 +1868,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>22197</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11718</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12668</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>5316</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>20809</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>12668</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>11718</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>30071</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>26573</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>20322</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>9348</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>26719</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>20322</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>26573</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>52268</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>38291</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>32990</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>14664</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>47528</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>32990</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>38291</t>
         </is>
       </c>
     </row>
@@ -1936,62 +1936,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>14511; 33349</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7935; 16431</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8369; 20316</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>3636; 7713</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>13511; 30948</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>8369; 20316</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>7935; 16431</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>21825; 40348</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>20401; 34212</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14337; 27603</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>6900; 12522</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>19680; 36193</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>14337; 27603</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>20401; 34212</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>40751; 66540</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>31217; 47033</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>24617; 42183</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>11611; 18709</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>36676; 61060</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>24617; 42183</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>31217; 47033</t>
         </is>
       </c>
     </row>
@@ -2008,62 +2008,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>237</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>498</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>351</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>269</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>496</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>735</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>468</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>496</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>401</t>
         </is>
       </c>
     </row>
@@ -2076,62 +2076,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>103940</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>56125</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>68475</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>39511</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>94931</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>68475</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>56125</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>227686</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>112287</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>151082</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>81254</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>210465</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>151082</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>112287</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>331626</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>168412</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>219557</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>120765</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>305396</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>219557</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>168412</t>
         </is>
       </c>
     </row>
@@ -2144,62 +2144,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>86814; 126131</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>46101; 68221</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>57945; 82775</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>34446; 44799</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>64186; 119724</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>57945; 82775</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>46101; 68221</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>203588; 249495</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>97159; 128402</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>135795; 168143</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>74823; 89186</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>152112; 244388</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>135795; 168143</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>97159; 128402</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>301459; 365681</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>149906; 187275</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>199219; 242191</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>111932; 130806</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>247100; 352090</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>199219; 242191</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>149906; 187275</t>
         </is>
       </c>
     </row>
